--- a/Lab3/lab3.xlsx
+++ b/Lab3/lab3.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\Desktop\praca_semestralna\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloaded\MRSy-master\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E9BD7A9-4F6C-4DDA-B7BA-90085D44E6F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9648" xr2:uid="{1639A261-55E8-41D5-8736-7074319AC65A}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -143,6 +143,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -260,34 +261,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.69813170079773179</c:v>
+                  <c:v>0.5711986642890533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26179938779914941</c:v>
+                  <c:v>0.241660973353061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12822827157509359</c:v>
+                  <c:v>0.12319971190548208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4907909556480893E-2</c:v>
+                  <c:v>8.2673490883941922E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3466518254339258E-2</c:v>
+                  <c:v>6.2209755516629564E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2169028907245547E-2</c:v>
+                  <c:v>4.1610498723043621E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5233675932448137E-2</c:v>
+                  <c:v>2.5032610785576042E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2591553721802777E-2</c:v>
+                  <c:v>1.2541288038282607E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3887654301463103E-3</c:v>
+                  <c:v>8.3664251760047752E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2894747819615474E-3</c:v>
+                  <c:v>6.2769083987808056E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,40 +300,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.76637999999999995</c:v>
+                  <c:v>0.1207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30242999999999998</c:v>
+                  <c:v>2.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14732000000000001</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6889000000000003E-2</c:v>
+                  <c:v>2.7000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2077000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7687E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8434000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4149E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4175000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.0575999999999998E-3</c:v>
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>6.8150999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>2.4661000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>6.1894000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>2.7545000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>1.5503999999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5068-4770-9FC9-CA090F0B7D1A}"/>
             </c:ext>
@@ -346,11 +347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="633315424"/>
-        <c:axId val="628960608"/>
+        <c:axId val="409752544"/>
+        <c:axId val="409754504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="633315424"/>
+        <c:axId val="409752544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -397,6 +398,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -463,12 +465,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628960608"/>
+        <c:crossAx val="409754504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="628960608"/>
+        <c:axId val="409754504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -515,6 +517,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -581,7 +584,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633315424"/>
+        <c:crossAx val="409752544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -595,14 +598,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -638,7 +641,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -682,6 +685,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -758,8 +762,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10140376202974628"/>
-                  <c:y val="0.29380212890055407"/>
+                  <c:x val="4.0686710277004975E-2"/>
+                  <c:y val="-0.17422292480723259"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -799,34 +803,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>3.8461538461538464E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0408163265306121E-2</c:v>
+                  <c:v>1.9607843137254902E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3513513513513514E-2</c:v>
+                  <c:v>1.3157894736842105E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0101010101010102E-2</c:v>
+                  <c:v>9.9009900990099011E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7114093959731542E-3</c:v>
+                  <c:v>6.6225165562913907E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0160642570281121E-3</c:v>
+                  <c:v>3.9840637450199202E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.004008016032064E-3</c:v>
+                  <c:v>1.996007984031936E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3351134846461949E-3</c:v>
+                  <c:v>1.3315579227696406E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.001001001001001E-3</c:v>
+                  <c:v>9.99000999000999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,43 +839,43 @@
             <c:numRef>
               <c:f>Arkusz1!$D$5:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.37678</c:v>
+                  <c:v>2.2204E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13333999999999999</c:v>
+                  <c:v>4.4408999999999998E-16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4041000000000001E-2</c:v>
+                  <c:v>1.9983999999999999E-15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2143E-2</c:v>
+                  <c:v>3.2196000000000001E-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1399999999999997E-2</c:v>
+                  <c:v>1.7486000000000001E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0797E-2</c:v>
+                  <c:v>4.7184000000000003E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2413E-2</c:v>
+                  <c:v>3.2196000000000001E-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1824999999999996E-3</c:v>
+                  <c:v>2.5979E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1162999999999998E-3</c:v>
+                  <c:v>1.9651E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0852000000000002E-3</c:v>
+                  <c:v>1.4931999999999999E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E53E-46AD-993D-851E0DD0F418}"/>
             </c:ext>
@@ -885,11 +889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="709759440"/>
-        <c:axId val="612380848"/>
+        <c:axId val="409756072"/>
+        <c:axId val="409756464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="709759440"/>
+        <c:axId val="409756072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -936,6 +940,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1002,15 +1007,16 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612380848"/>
+        <c:crossAx val="409756464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="612380848"/>
+        <c:axId val="409756464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000006E-12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1054,6 +1060,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1083,7 +1090,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1120,7 +1127,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709759440"/>
+        <c:crossAx val="409756072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1134,14 +1141,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2292,23 +2299,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>40525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508618</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>49184</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>508617</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157243</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA33F29D-243C-4351-9573-2C5EA8321C4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA33F29D-243C-4351-9573-2C5EA8321C4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,22 +2336,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>596152</xdr:colOff>
+      <xdr:colOff>575460</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:rowOff>7978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>588909</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:rowOff>169344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450757F4-62F0-4A71-8FC2-43DAC278F49F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{450757F4-62F0-4A71-8FC2-43DAC278F49F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,21 +2668,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEE2C75-08C1-41B8-9A9B-A6CDFEA24170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2705,167 +2712,167 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>(2*PI())/(10-1)</f>
-        <v>0.69813170079773179</v>
+        <f>(2*PI())/(10+1)</f>
+        <v>0.5711986642890533</v>
       </c>
       <c r="B5">
-        <v>0.76637999999999995</v>
+        <v>0.1207</v>
       </c>
       <c r="C5">
-        <f>1/(10-1)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D5">
-        <v>0.37678</v>
+        <f>1/(10+1)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.2204E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>(2*PI())/(25-1)</f>
-        <v>0.26179938779914941</v>
+        <f>(2*PI())/(25+1)</f>
+        <v>0.241660973353061</v>
       </c>
       <c r="B6">
-        <v>0.30242999999999998</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="C6">
-        <f>1/(25-1)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.13333999999999999</v>
+        <f>1/(25+1)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.4408999999999998E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>(2*PI())/(50-1)</f>
-        <v>0.12822827157509359</v>
+        <f>(2*PI())/(50+1)</f>
+        <v>0.12319971190548208</v>
       </c>
       <c r="B7">
-        <v>0.14732000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C7">
-        <f>1/(50-1)</f>
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="D7">
-        <v>6.4041000000000001E-2</v>
+        <f>1/(50+1)</f>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.9983999999999999E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>(2*PI())/(75-1)</f>
-        <v>8.4907909556480893E-2</v>
+        <f>(2*PI())/(75+1)</f>
+        <v>8.2673490883941922E-2</v>
       </c>
       <c r="B8">
-        <v>9.6889000000000003E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="C8">
-        <f>1/(75-1)</f>
-        <v>1.3513513513513514E-2</v>
-      </c>
-      <c r="D8">
-        <v>4.2143E-2</v>
+        <f>1/(75+1)</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.2196000000000001E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>(2*PI())/(100-1)</f>
-        <v>6.3466518254339258E-2</v>
+        <f>(2*PI())/(100+1)</f>
+        <v>6.2209755516629564E-2</v>
       </c>
       <c r="B9">
-        <v>7.2077000000000002E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C9">
-        <f>1/(100-1)</f>
-        <v>1.0101010101010102E-2</v>
-      </c>
-      <c r="D9">
-        <v>3.1399999999999997E-2</v>
+        <f>1/(100+1)</f>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.7486000000000001E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>(2*PI())/(150-1)</f>
-        <v>4.2169028907245547E-2</v>
-      </c>
-      <c r="B10">
-        <v>4.7687E-2</v>
+        <f>(2*PI())/(150+1)</f>
+        <v>4.1610498723043621E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.8150999999999997E-4</v>
       </c>
       <c r="C10">
-        <f>1/(150-1)</f>
-        <v>6.7114093959731542E-3</v>
-      </c>
-      <c r="D10">
-        <v>2.0797E-2</v>
+        <f>1/(150+1)</f>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.7184000000000003E-15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>(2*PI())/(250-1)</f>
-        <v>2.5233675932448137E-2</v>
-      </c>
-      <c r="B11">
-        <v>2.8434000000000001E-2</v>
+        <f>(2*PI())/(250+1)</f>
+        <v>2.5032610785576042E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.4661000000000003E-4</v>
       </c>
       <c r="C11">
-        <f>1/(250-1)</f>
-        <v>4.0160642570281121E-3</v>
-      </c>
-      <c r="D11">
-        <v>1.2413E-2</v>
+        <f>1/(250+1)</f>
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.2196000000000001E-15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>(2*PI())/(500-1)</f>
-        <v>1.2591553721802777E-2</v>
-      </c>
-      <c r="B12">
-        <v>1.4149E-2</v>
+        <f>(2*PI())/(500+1)</f>
+        <v>1.2541288038282607E-2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.1894000000000001E-5</v>
       </c>
       <c r="C12">
-        <f>1/(500-1)</f>
-        <v>2.004008016032064E-3</v>
-      </c>
-      <c r="D12">
-        <v>6.1824999999999996E-3</v>
+        <f>1/(500+1)</f>
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5979E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>(2*PI())/(750-1)</f>
-        <v>8.3887654301463103E-3</v>
-      </c>
-      <c r="B13">
-        <v>9.4175000000000005E-3</v>
+        <f>(2*PI())/(750+1)</f>
+        <v>8.3664251760047752E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.7545000000000001E-5</v>
       </c>
       <c r="C13">
-        <f>1/(750-1)</f>
-        <v>1.3351134846461949E-3</v>
-      </c>
-      <c r="D13">
-        <v>4.1162999999999998E-3</v>
+        <f>1/(750+1)</f>
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.9651E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>(2*PI())/(1000-1)</f>
-        <v>6.2894747819615474E-3</v>
-      </c>
-      <c r="B14">
-        <v>7.0575999999999998E-3</v>
+        <f>(2*PI())/(1000+1)</f>
+        <v>6.2769083987808056E-3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.5503999999999999E-5</v>
       </c>
       <c r="C14">
-        <f>1/(1000-1)</f>
-        <v>1.001001001001001E-3</v>
-      </c>
-      <c r="D14">
-        <v>3.0852000000000002E-3</v>
+        <f>1/(1000+1)</f>
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.4931999999999999E-13</v>
       </c>
     </row>
-    <row r="22" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>0</v>
       </c>

--- a/Lab3/lab3.xlsx
+++ b/Lab3/lab3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -43,11 +43,17 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -256,9 +262,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$5:$A$14</c:f>
+              <c:f>Arkusz1!$B$5:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.5711986642890533</c:v>
@@ -295,9 +301,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$14</c:f>
+              <c:f>Arkusz1!$C$5:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1207</c:v>
@@ -314,19 +320,19 @@
                 <c:pt idx="4">
                   <c:v>1.5E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
+                <c:pt idx="5">
                   <c:v>6.8150999999999997E-4</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
+                <c:pt idx="6">
                   <c:v>2.4661000000000003E-4</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
+                <c:pt idx="7">
                   <c:v>6.1894000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
+                <c:pt idx="8">
                   <c:v>2.7545000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
+                <c:pt idx="9">
                   <c:v>1.5503999999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -347,11 +353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409752544"/>
-        <c:axId val="409754504"/>
+        <c:axId val="514693656"/>
+        <c:axId val="514687776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409752544"/>
+        <c:axId val="514693656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -428,7 +434,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -465,12 +471,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409754504"/>
+        <c:crossAx val="514687776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409754504"/>
+        <c:axId val="514687776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -547,7 +553,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -584,7 +590,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409752544"/>
+        <c:crossAx val="514693656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -798,9 +804,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$5:$C$14</c:f>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -837,9 +843,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$5:$D$14</c:f>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.2204E-16</c:v>
@@ -889,11 +895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409756072"/>
-        <c:axId val="409756464"/>
+        <c:axId val="514688560"/>
+        <c:axId val="514694440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409756072"/>
+        <c:axId val="514688560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -970,7 +976,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1007,12 +1013,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409756464"/>
+        <c:crossAx val="514694440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409756464"/>
+        <c:axId val="514694440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1090,7 +1096,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1127,7 +1133,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409756072"/>
+        <c:crossAx val="514688560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2299,23 +2305,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>508618</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>148584</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413368</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>508617</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157243</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>413367</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA33F29D-243C-4351-9573-2C5EA8321C4F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA33F29D-243C-4351-9573-2C5EA8321C4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,23 +2341,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>575460</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7978</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>588909</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>55509</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>169344</xdr:rowOff>
+      <xdr:rowOff>83619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{450757F4-62F0-4A71-8FC2-43DAC278F49F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450757F4-62F0-4A71-8FC2-43DAC278F49F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,10 +2678,14 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2694,181 +2704,247 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
         <f>(2*PI())/(10+1)</f>
         <v>0.5711986642890533</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>0.1207</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <f>1/(10+1)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>2.2204E-16</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
         <f>(2*PI())/(25+1)</f>
         <v>0.241660973353061</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
         <f>1/(25+1)</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>4.4408999999999998E-16</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
         <f>(2*PI())/(50+1)</f>
         <v>0.12319971190548208</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
         <f>1/(50+1)</f>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>1.9983999999999999E-15</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1">
         <f>(2*PI())/(75+1)</f>
         <v>8.2673490883941922E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
         <f>1/(75+1)</f>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>3.2196000000000001E-15</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
         <f>(2*PI())/(100+1)</f>
         <v>6.2209755516629564E-2</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
         <f>1/(100+1)</f>
         <v>9.9009900990099011E-3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>1.7486000000000001E-15</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1">
         <f>(2*PI())/(150+1)</f>
         <v>4.1610498723043621E-2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>6.8150999999999997E-4</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1">
         <f>1/(150+1)</f>
         <v>6.6225165562913907E-3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>4.7184000000000003E-15</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="B11" s="1">
         <f>(2*PI())/(250+1)</f>
         <v>2.5032610785576042E-2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>2.4661000000000003E-4</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11" s="1">
         <f>1/(250+1)</f>
         <v>3.9840637450199202E-3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>3.2196000000000001E-15</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12" s="1">
         <f>(2*PI())/(500+1)</f>
         <v>1.2541288038282607E-2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>6.1894000000000001E-5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1">
         <f>1/(500+1)</f>
         <v>1.996007984031936E-3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>2.5979E-14</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>750</v>
+      </c>
+      <c r="B13" s="1">
         <f>(2*PI())/(750+1)</f>
         <v>8.3664251760047752E-3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>2.7545000000000001E-5</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <v>750</v>
+      </c>
+      <c r="E13" s="1">
         <f>1/(750+1)</f>
         <v>1.3315579227696406E-3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>1.9651E-14</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="1">
         <f>(2*PI())/(1000+1)</f>
         <v>6.2769083987808056E-3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>1.5503999999999999E-5</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="1">
         <f>1/(1000+1)</f>
         <v>9.99000999000999E-4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <v>1.4931999999999999E-13</v>
       </c>
     </row>
@@ -2882,6 +2958,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>